--- a/data/综合指数/控制变量.xlsx
+++ b/data/综合指数/控制变量.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>占比</t>
+    <t>人均GDP增长率</t>
   </si>
   <si>
-    <t>医保</t>
-  </si>
-  <si>
-    <t>个人卫生支出占比</t>
-  </si>
-  <si>
-    <t>老头</t>
+    <t>人口自然增长率加一</t>
   </si>
   <si>
     <t>政府卫生支出占比</t>
+  </si>
+  <si>
+    <t>变异系数</t>
   </si>
 </sst>
 </file>
@@ -40,10 +37,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +51,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -62,6 +97,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,17 +144,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,30 +167,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,69 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,187 +204,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,17 +455,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,162 +480,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -977,7 +977,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F11"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.8" defaultRowHeight="16.5"/>
@@ -990,235 +990,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="F1"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2013</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0689918610632054</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0662827134239</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.33879697515042</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0969969135351</v>
-      </c>
-      <c r="F2">
+        <v>0.093666376</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.06</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="E2" s="1">
+        <v>0.443839363433743</v>
+      </c>
+      <c r="F2"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2014</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0720979339470307</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.06859560763737</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.31987089941901</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.10099821280677</v>
-      </c>
-      <c r="F3">
+        <v>0.078514286</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.07</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="E3" s="1">
+        <v>0.437507081131138</v>
+      </c>
+      <c r="F3"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2015</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0741134390672335</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.06878997434402</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.29268466443334</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.10499833726125</v>
-      </c>
-      <c r="F4">
+        <v>0.064176034</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.07</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="E4" s="1">
+        <v>0.44587930838091</v>
+      </c>
+      <c r="F4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2016</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0764141735872875</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.07378239568207</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.2877965382486</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.10799959779361</v>
-      </c>
-      <c r="F5">
+        <v>0.077333548</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.07</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="E5" s="1">
+        <v>0.45621401121724</v>
+      </c>
+      <c r="F5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2017</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0792048946354403</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.078453272299</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.28772038845425</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.11399818585683</v>
-      </c>
-      <c r="F6">
+        <v>0.108012829</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.07</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="E6" s="1">
+        <v>0.454272156430865</v>
+      </c>
+      <c r="F6"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2018</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0848834690803955</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.08480193489968</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.28605283557314</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.11899730327805</v>
-      </c>
-      <c r="F7">
+        <v>0.099702419</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.07</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="E7" s="1">
+        <v>0.45365644533455</v>
+      </c>
+      <c r="F7"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2019</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0882373404951087</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.08825232524528</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.28361901229607</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.12599994326563</v>
-      </c>
-      <c r="F8">
+        <v>0.069337549</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.07</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="E8" s="1">
+        <v>0.448624803176914</v>
+      </c>
+      <c r="F8"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2020</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0868980994724162</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0847777284648</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.27654215448563</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.1349993484973</v>
-      </c>
-      <c r="F9">
+        <v>0.0249788</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.08</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="E9" s="1">
+        <v>0.441893337175489</v>
+      </c>
+      <c r="F9"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>2021</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0877631213148493</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.1156132656325</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.2759538390206</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.14197932889707</v>
-      </c>
-      <c r="F10">
+        <v>0.132842441</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.08</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="E10" s="1">
+        <v>0.441133976752797</v>
+      </c>
+      <c r="F10"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2022</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0863918298815724</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.0923029293402</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.2688575510659</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.14859571453869</v>
-      </c>
-      <c r="F11">
+        <v>0.053190776</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.08</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="E11" s="1">
+        <v>0.424161674244903</v>
+      </c>
+      <c r="F11"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2"/>
